--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/52.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/52.xlsx
@@ -479,13 +479,13 @@
         <v>0.01928895154960253</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.932114993845512</v>
+        <v>-1.932402623319421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3913551663674552</v>
+        <v>0.3916179750238188</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2299799791034688</v>
+        <v>-0.2301026231431052</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.06274812920049813</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.946263589870463</v>
+        <v>-1.946460696362735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3098392214039317</v>
+        <v>0.3101180905892952</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.210067843239656</v>
+        <v>-0.2101379255480196</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1042175643489035</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.015658945607308</v>
+        <v>-2.01596044553808</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2830414987433934</v>
+        <v>0.283272186341757</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.227594260522924</v>
+        <v>-0.2276453622061058</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1335458081845113</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.080777820485881</v>
+        <v>-2.080852282938517</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2586878965870363</v>
+        <v>0.2589536253395817</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2344112250593767</v>
+        <v>-0.2344345858288313</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1482302868224976</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.047471933460117</v>
+        <v>-2.047592387427617</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2457664709824943</v>
+        <v>0.2458891150221306</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2222972060491073</v>
+        <v>-0.2223147266261982</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1487037339314875</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.914376139565017</v>
+        <v>-1.914318467665426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2611495376683084</v>
+        <v>0.2615247700276719</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2089611267867472</v>
+        <v>-0.2090253689027472</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1395244990231654</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.642509344845453</v>
+        <v>-1.642496204412635</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2586251145191272</v>
+        <v>0.2591302911585817</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.182881747786936</v>
+        <v>-0.1831810576455723</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1262900010869895</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.265364322482827</v>
+        <v>-1.2654329447431</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2430449413410405</v>
+        <v>0.2435252971629495</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1249645601167698</v>
+        <v>-0.1253543929570424</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1161111470875972</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7775038533865946</v>
+        <v>-0.7777272407445036</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2676730325384885</v>
+        <v>0.2681898895626701</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02575137224334185</v>
+        <v>-0.02602294118825087</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1182373407912563</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2421071385465565</v>
+        <v>-0.2424633902807382</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1623991850396985</v>
+        <v>0.1626488532632439</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06251145494827082</v>
+        <v>0.06223842595527088</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1426693488306462</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4236047085994466</v>
+        <v>0.4236572703307193</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04112321046454928</v>
+        <v>0.04127359541791287</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1620487734978804</v>
+        <v>0.1616998220041533</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1963655919047231</v>
       </c>
       <c r="E13" t="n">
-        <v>1.110056538876808</v>
+        <v>1.109885713250171</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1247002914123153</v>
+        <v>-0.1244039016498608</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2932895762934816</v>
+        <v>0.2930661889355725</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2837584976143531</v>
       </c>
       <c r="E14" t="n">
-        <v>1.826545938528433</v>
+        <v>1.82642767463307</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3454916838157105</v>
+        <v>-0.3456143278553468</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4404157023181693</v>
+        <v>0.4401207726038058</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4074518815861894</v>
       </c>
       <c r="E15" t="n">
-        <v>2.530859997149971</v>
+        <v>2.530852696909517</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6172854761307285</v>
+        <v>-0.6173540983910012</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6285501990722098</v>
+        <v>0.6282888504639371</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5675542646250148</v>
       </c>
       <c r="E16" t="n">
-        <v>3.201483446073792</v>
+        <v>3.201706833431701</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9367804996238245</v>
+        <v>-0.9367235577482791</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7839066161853498</v>
+        <v>0.7837314104144408</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7608652214498731</v>
       </c>
       <c r="E17" t="n">
-        <v>3.858180956306524</v>
+        <v>3.858553268569706</v>
       </c>
       <c r="F17" t="n">
         <v>-1.196055839607391</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9829797932364782</v>
+        <v>0.9827534857823873</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9796349293901091</v>
       </c>
       <c r="E18" t="n">
-        <v>4.397873132630016</v>
+        <v>4.398287786287834</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.557035209507476</v>
+        <v>-1.556868764025112</v>
       </c>
       <c r="G18" t="n">
-        <v>1.182050050191425</v>
+        <v>1.181879224564788</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.213078247788802</v>
       </c>
       <c r="E19" t="n">
-        <v>4.926315638413056</v>
+        <v>4.926768253321238</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.838926694419219</v>
+        <v>-1.838990206511173</v>
       </c>
       <c r="G19" t="n">
-        <v>1.377592830958736</v>
+        <v>1.377683353940372</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.44634054592826</v>
       </c>
       <c r="E20" t="n">
-        <v>5.287497954997777</v>
+        <v>5.288086354378413</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.159793433093723</v>
+        <v>-2.159812413718905</v>
       </c>
       <c r="G20" t="n">
-        <v>1.587190034649134</v>
+        <v>1.587255736813225</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.662287094073511</v>
       </c>
       <c r="E21" t="n">
-        <v>5.599015275722148</v>
+        <v>5.599507311928784</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.474572501253185</v>
+        <v>-2.474828739693139</v>
       </c>
       <c r="G21" t="n">
-        <v>1.767181843200177</v>
+        <v>1.767336608297813</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.846741021069711</v>
       </c>
       <c r="E22" t="n">
-        <v>5.835429182698266</v>
+        <v>5.836097884723903</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.784445807827192</v>
+        <v>-2.784704236339283</v>
       </c>
       <c r="G22" t="n">
-        <v>1.894708283652506</v>
+        <v>1.894848448269233</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.991011308687145</v>
       </c>
       <c r="E23" t="n">
-        <v>5.984085439122226</v>
+        <v>5.985122073266772</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.036030344491897</v>
+        <v>-3.036164668916261</v>
       </c>
       <c r="G23" t="n">
-        <v>2.012180832950838</v>
+        <v>2.012480142809475</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.0935118061295</v>
       </c>
       <c r="E24" t="n">
-        <v>6.074495997055566</v>
+        <v>6.075494669949747</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.269889897332971</v>
+        <v>-3.270061452983652</v>
       </c>
       <c r="G24" t="n">
-        <v>2.114587145999083</v>
+        <v>2.114893756098174</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.155492058758406</v>
       </c>
       <c r="E25" t="n">
-        <v>6.087757613865289</v>
+        <v>6.088897911424289</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.444448136913697</v>
+        <v>-3.444693424992969</v>
       </c>
       <c r="G25" t="n">
-        <v>2.17281094376834</v>
+        <v>2.172832844489704</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.180337753199661</v>
       </c>
       <c r="E26" t="n">
-        <v>6.035569654903849</v>
+        <v>6.036663230923939</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.609520444047789</v>
+        <v>-3.609860635252971</v>
       </c>
       <c r="G26" t="n">
-        <v>2.199065528539061</v>
+        <v>2.199137070895515</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.17231023838211</v>
       </c>
       <c r="E27" t="n">
-        <v>5.935268731202694</v>
+        <v>5.936195861740421</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.697333576427401</v>
+        <v>-3.697819772441674</v>
       </c>
       <c r="G27" t="n">
-        <v>2.200772324757333</v>
+        <v>2.200919789614515</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.13480549526035</v>
       </c>
       <c r="E28" t="n">
-        <v>5.863465026139895</v>
+        <v>5.864301633695986</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.764554190532838</v>
+        <v>-3.765008265489111</v>
       </c>
       <c r="G28" t="n">
-        <v>2.209123799837331</v>
+        <v>2.209179281664785</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.072895419732228</v>
       </c>
       <c r="E29" t="n">
-        <v>5.667793761140584</v>
+        <v>5.668538385666947</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.802095677070328</v>
+        <v>-3.802732988062009</v>
       </c>
       <c r="G29" t="n">
-        <v>2.205102827394968</v>
+        <v>2.20545907912915</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.990505059374633</v>
       </c>
       <c r="E30" t="n">
-        <v>5.457194964459823</v>
+        <v>5.457884107158731</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.82668288692123</v>
+        <v>-3.827682289839457</v>
       </c>
       <c r="G30" t="n">
-        <v>2.159131753204617</v>
+        <v>2.159512825756344</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.891239701164544</v>
       </c>
       <c r="E31" t="n">
-        <v>5.178966740208169</v>
+        <v>5.179613541512442</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.723246509944849</v>
+        <v>-3.724222552093622</v>
       </c>
       <c r="G31" t="n">
-        <v>2.076409808518003</v>
+        <v>2.076844902849094</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.77799101710164</v>
       </c>
       <c r="E32" t="n">
-        <v>4.871960968084706</v>
+        <v>4.872669091408797</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.641037042138144</v>
+        <v>-3.642103607268552</v>
       </c>
       <c r="G32" t="n">
-        <v>1.929876462018224</v>
+        <v>1.93040061928286</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.652196931575449</v>
       </c>
       <c r="E33" t="n">
-        <v>4.590371713127782</v>
+        <v>4.591117797702236</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.505671603485726</v>
+        <v>-3.506566612965452</v>
       </c>
       <c r="G33" t="n">
-        <v>1.837772248299431</v>
+        <v>1.838274504842703</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.517528101935418</v>
       </c>
       <c r="E34" t="n">
-        <v>4.259859166740689</v>
+        <v>4.260403764678598</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.394294024942892</v>
+        <v>-3.394943746343346</v>
       </c>
       <c r="G34" t="n">
-        <v>1.714094494614737</v>
+        <v>1.714398184617645</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.378063088769027</v>
       </c>
       <c r="E35" t="n">
-        <v>3.915241095747327</v>
+        <v>3.9158878970516</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.275688478326015</v>
+        <v>-3.276380541121105</v>
       </c>
       <c r="G35" t="n">
-        <v>1.59958730298904</v>
+        <v>1.600064738714767</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.238054816869484</v>
       </c>
       <c r="E36" t="n">
-        <v>3.579231468297963</v>
+        <v>3.579967332535781</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.149966657314049</v>
+        <v>-3.150781364148775</v>
       </c>
       <c r="G36" t="n">
-        <v>1.455176866413442</v>
+        <v>1.455438215021715</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.101991066773607</v>
       </c>
       <c r="E37" t="n">
-        <v>3.231393991264147</v>
+        <v>3.231813025066238</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.012338144120722</v>
+        <v>-3.012803899461721</v>
       </c>
       <c r="G37" t="n">
-        <v>1.324340496939023</v>
+        <v>1.324610605835841</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9724791525347521</v>
       </c>
       <c r="E38" t="n">
-        <v>2.871330071517062</v>
+        <v>2.87195351205188</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.958289353867418</v>
+        <v>-2.958579903437509</v>
       </c>
       <c r="G38" t="n">
-        <v>1.178582435975517</v>
+        <v>1.178824803958607</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8534634793111562</v>
       </c>
       <c r="E39" t="n">
-        <v>2.528084445729154</v>
+        <v>2.528629043667063</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.818576622024319</v>
+        <v>-2.818905132844774</v>
       </c>
       <c r="G39" t="n">
-        <v>1.077385042746544</v>
+        <v>1.077703333230362</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7469521070679197</v>
       </c>
       <c r="E40" t="n">
-        <v>2.211169327212694</v>
+        <v>2.211681804092603</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.702002002301896</v>
+        <v>-2.702270651150623</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9573895303471214</v>
+        <v>0.9576742397248487</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6535405361120319</v>
       </c>
       <c r="E41" t="n">
-        <v>1.878440427823601</v>
+        <v>1.878914943453147</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.572880459310249</v>
+        <v>-2.573154218327294</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8354740547081542</v>
+        <v>0.8357456236530632</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5721971193603737</v>
       </c>
       <c r="E42" t="n">
-        <v>1.547732234992327</v>
+        <v>1.548065125957054</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.507181945339584</v>
+        <v>-2.507617769694721</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7190293792658218</v>
+        <v>0.7193170087397308</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5005391942352282</v>
       </c>
       <c r="E43" t="n">
-        <v>1.282194748746852</v>
+        <v>1.28262400288558</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.426958872960561</v>
+        <v>-2.427377176738606</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6555435681769297</v>
+        <v>0.6557786359195661</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4361559692245208</v>
       </c>
       <c r="E44" t="n">
-        <v>1.013261190641925</v>
+        <v>1.013788268002743</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.313209446294046</v>
+        <v>-2.313533576970228</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5479263434922313</v>
+        <v>0.5481526509463223</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3766768055156757</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7916098299129841</v>
+        <v>0.7923705149683475</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.269109423732194</v>
+        <v>-2.269386102845421</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4415822807428054</v>
+        <v>0.4417589465618054</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3203361911415559</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5572575108412289</v>
+        <v>0.5580152758004104</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.177668801870718</v>
+        <v>-2.178026513652991</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3733951148011873</v>
+        <v>0.3737615868720054</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2664831897596154</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3587756532669185</v>
+        <v>0.3595027572161911</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.087527622810152</v>
+        <v>-2.088024039161061</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2931275109553907</v>
+        <v>0.2934078401888452</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.215274444328719</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2392137751504961</v>
+        <v>0.2399803003982232</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.983383852533725</v>
+        <v>-1.983814566720543</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2035258196644148</v>
+        <v>0.2038849914947783</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.167910782871951</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1103849718010761</v>
+        <v>0.1111967585396214</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.884245857136979</v>
+        <v>-1.884786074930615</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1516254901768832</v>
+        <v>0.1519087395065195</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1250202096567702</v>
       </c>
       <c r="E50" t="n">
-        <v>0.005384153295286151</v>
+        <v>0.006176959408649574</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.799776964909593</v>
+        <v>-1.800358064049774</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08504583718335566</v>
+        <v>0.08536558771526467</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.08673042292174458</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08476505602978056</v>
+        <v>-0.08403649203241711</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.669978689627809</v>
+        <v>-1.670583149537446</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02668771498973498</v>
+        <v>0.02710090859946214</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.05246853391870566</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1879948362012983</v>
+        <v>-0.1875655820625711</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.54976270996666</v>
+        <v>-1.550390530645751</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.00955067862661893</v>
+        <v>-0.009356492230528073</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.02144386551069861</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3075625545100844</v>
+        <v>-0.3072866054209026</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.437556554132235</v>
+        <v>-1.438066110915963</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07663842835578273</v>
+        <v>-0.07652600465278277</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.006862817070274399</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3414327501229844</v>
+        <v>-0.3411801618032572</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.365966016090709</v>
+        <v>-1.366463892489709</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1403724476201293</v>
+        <v>-0.1403140456964929</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.03313707502893309</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4697096552940408</v>
+        <v>-0.4695213090903136</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.320517639116903</v>
+        <v>-1.321190721286812</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1495167288134904</v>
+        <v>-0.1496700338630358</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.05825825634049504</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5482850634024743</v>
+        <v>-0.5483726662879288</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.236345866676017</v>
+        <v>-1.236605755236198</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2000124920375678</v>
+        <v>-0.2000300126146587</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.08289169544416325</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6476471761811748</v>
+        <v>-0.647933345606993</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.195138929406301</v>
+        <v>-1.195429478976392</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2290908098161054</v>
+        <v>-0.2292908364045599</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1070590520867087</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6701275366368961</v>
+        <v>-0.6704750280825323</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.155415400996948</v>
+        <v>-1.155565785950311</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2634691021646416</v>
+        <v>-0.263702709859187</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1300287753277059</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7661855605858703</v>
+        <v>-0.7663417857315975</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.142064721253679</v>
+        <v>-1.142219486351315</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3157169230978095</v>
+        <v>-0.3159899520908094</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1514211550168309</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8324454630474889</v>
+        <v>-0.8325783274237616</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.10297485371578</v>
+        <v>-1.102890170926507</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3494688548153458</v>
+        <v>-0.3497740048663457</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1708442240744178</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9629547817495447</v>
+        <v>-0.9632511715119992</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.093652446655328</v>
+        <v>-1.093721068915601</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3927023388352433</v>
+        <v>-0.3930031087419705</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1881480339811782</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.084163594112512</v>
+        <v>-1.084566567385603</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.093380877710419</v>
+        <v>-1.09346264040351</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4341691646651413</v>
+        <v>-0.4345648376977775</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2031330061934555</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.143879561030678</v>
+        <v>-1.144232892668678</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.132406503132317</v>
+        <v>-1.132526227075772</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4934310566270345</v>
+        <v>-0.4938909717756707</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2156356239299409</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.239947805316288</v>
+        <v>-1.240290916617652</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.161019065569855</v>
+        <v>-1.161178210811764</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5220275585355723</v>
+        <v>-0.522414471279663</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2261894668371855</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.369940266994163</v>
+        <v>-1.370575387913708</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.12169413028932</v>
+        <v>-1.121908757358684</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5471958675266564</v>
+        <v>-0.5475550393570199</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2353474934290634</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.429372984582692</v>
+        <v>-1.429973064348056</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.200234497243572</v>
+        <v>-1.20053672719839</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6016469010290054</v>
+        <v>-0.6020484142540052</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2434485954273594</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.529215453183302</v>
+        <v>-1.529730850159392</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.290995466718729</v>
+        <v>-1.29136631893382</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6470762973776295</v>
+        <v>-0.6473653868996295</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2508217787002702</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.555426236511295</v>
+        <v>-1.555636483436386</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.360717143203892</v>
+        <v>-1.361156617679256</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.670673594622896</v>
+        <v>-0.6709626841448959</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2573639662709526</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.621864264840004</v>
+        <v>-1.621948947629277</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.442916390673961</v>
+        <v>-1.443383606063052</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6662014673204426</v>
+        <v>-0.6663357917448062</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2631669568394486</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.677176726715989</v>
+        <v>-1.67719424729308</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.518244651828214</v>
+        <v>-1.518616964091396</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6909127812590723</v>
+        <v>-0.6911332485207996</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2683145698211392</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.709948966164526</v>
+        <v>-1.71014753270489</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.629298829718911</v>
+        <v>-1.62973100395382</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7317882876121523</v>
+        <v>-0.7321532996348794</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2731470060323894</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.690182835109804</v>
+        <v>-1.690301099005168</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.723225183455159</v>
+        <v>-1.723777081633522</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7541591444610554</v>
+        <v>-0.754452614127328</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2777039861119388</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.678483469757353</v>
+        <v>-1.678763798990807</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.775756253717963</v>
+        <v>-1.776208868626145</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7760160643819586</v>
+        <v>-0.7761649892872312</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2819220624425708</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.629688662559184</v>
+        <v>-1.629919350157548</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.847600840127307</v>
+        <v>-1.84799067296758</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7730258858917776</v>
+        <v>-0.7733368761351411</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2852006887447961</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.541682803831571</v>
+        <v>-1.54187407013148</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.950305733010143</v>
+        <v>-1.950583142147416</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7763051539039585</v>
+        <v>-0.7765387615985039</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2875078635450319</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.423813121452512</v>
+        <v>-1.424014608089057</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.003632529482493</v>
+        <v>-2.003785834532038</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.763680118061871</v>
+        <v>-0.7638100623419618</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2885086596693647</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.288801014438094</v>
+        <v>-1.288833135496094</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.054675810740661</v>
+        <v>-2.054915988651615</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7506375084657836</v>
+        <v>-0.7507440919764199</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2873701685002708</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.106687756010961</v>
+        <v>-1.106458528460688</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.08189256720329</v>
+        <v>-2.08191008778038</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7245537493216997</v>
+        <v>-0.7246136112934269</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2835496481503865</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9458211174027311</v>
+        <v>-0.9453685024945495</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.078646150273154</v>
+        <v>-2.078714042509382</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6695595779295326</v>
+        <v>-0.6695931590356236</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2765589745047556</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7032618680119781</v>
+        <v>-0.7028924758449782</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.113419385630281</v>
+        <v>-2.113372664091372</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6104947924599121</v>
+        <v>-0.6106977391445484</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2658722562582992</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4459123314603199</v>
+        <v>-0.4455531596299564</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.11567442990669</v>
+        <v>-2.115573686588417</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5166385210320282</v>
+        <v>-0.51678598588921</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2509774903376952</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.155792015508216</v>
+        <v>-0.1557044126227615</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.101095119694921</v>
+        <v>-2.10110972017583</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4478264545075012</v>
+        <v>-0.4480308612402285</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2319561739077076</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1447136225145215</v>
+        <v>0.1446479203504306</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.034608179755166</v>
+        <v>-2.034990712354984</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3333981054787138</v>
+        <v>-0.3336594540869864</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2092779458801117</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4895346401925198</v>
+        <v>0.4892689114399744</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.977215879373681</v>
+        <v>-1.977580161372363</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2529114944192808</v>
+        <v>-0.2531232013924626</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1833152513286264</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7955388193256194</v>
+        <v>0.7950292625418923</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.905126004885064</v>
+        <v>-1.905534088326474</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1788914363544825</v>
+        <v>-0.1791323442894825</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1554908839322191</v>
       </c>
       <c r="E86" t="n">
-        <v>1.111042071338171</v>
+        <v>1.110604056910898</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.854970432866169</v>
+        <v>-1.855537661549487</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1054261965642296</v>
+        <v>-0.1054918987283204</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1277108388510304</v>
       </c>
       <c r="E87" t="n">
-        <v>1.355546104786014</v>
+        <v>1.35529789661056</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.679812113520079</v>
+        <v>-1.680695442615079</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05906382948551472</v>
+        <v>-0.05910763092824198</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1020547391469779</v>
       </c>
       <c r="E88" t="n">
-        <v>1.579467840296318</v>
+        <v>1.579168530437682</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.498760310055037</v>
+        <v>-1.499740002324037</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01008842824419398</v>
+        <v>0.01010010862892125</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.08009367407829385</v>
       </c>
       <c r="E89" t="n">
-        <v>1.767860765562449</v>
+        <v>1.767291346806995</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.265854898641372</v>
+        <v>-1.267186462500281</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06609295291526984</v>
+        <v>0.06603017084736078</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0631990288128355</v>
       </c>
       <c r="E90" t="n">
-        <v>1.949817798843855</v>
+        <v>1.949194358309037</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.036468203126798</v>
+        <v>-1.037938471554343</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0982096307709885</v>
+        <v>0.09821255086717032</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.05256736714211898</v>
       </c>
       <c r="E91" t="n">
-        <v>2.133883141568533</v>
+        <v>2.133151657474988</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.811909886648858</v>
+        <v>-0.8134604577214031</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08174612849790201</v>
+        <v>0.08169210671853838</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.04947146694874789</v>
       </c>
       <c r="E92" t="n">
-        <v>2.24972481714932</v>
+        <v>2.249218180461774</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6112175162649119</v>
+        <v>-0.6128542301748205</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09211539003953559</v>
+        <v>0.09226723504099009</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05434093683258048</v>
       </c>
       <c r="E93" t="n">
-        <v>2.353446633527474</v>
+        <v>2.352937076743747</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3626341084510696</v>
+        <v>-0.3642839627937964</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04294389043391243</v>
+        <v>0.04313953687809419</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06714146384922406</v>
       </c>
       <c r="E94" t="n">
-        <v>2.372747009241196</v>
+        <v>2.372386377362742</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2207203541109259</v>
+        <v>-0.22236582830938</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007866235049830939</v>
+        <v>0.00803268053219453</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.08725873895599363</v>
       </c>
       <c r="E95" t="n">
-        <v>2.327313232748299</v>
+        <v>2.32712196644839</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.05724022941996976</v>
+        <v>-0.05864771577960574</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02860868635725018</v>
+        <v>-0.02849626265425021</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.112857579625252</v>
       </c>
       <c r="E96" t="n">
-        <v>2.228590621033416</v>
+        <v>2.228460676753325</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06291004807708889</v>
+        <v>0.06145730022663473</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07101140301342061</v>
+        <v>-0.07075297450132977</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1409540754794453</v>
       </c>
       <c r="E97" t="n">
-        <v>2.080914056878456</v>
+        <v>2.080643947981638</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1335895161098881</v>
+        <v>0.1324360781180702</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1263121845046785</v>
+        <v>-0.1260420756078604</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1699050516066863</v>
       </c>
       <c r="E98" t="n">
-        <v>1.887860658106144</v>
+        <v>1.887583248968872</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1988624260620524</v>
+        <v>0.1979294553319617</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1402074621858566</v>
+        <v>-0.1401505203103111</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1966869022145815</v>
       </c>
       <c r="E99" t="n">
-        <v>1.690941051989106</v>
+        <v>1.690621301457197</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2082432350461408</v>
+        <v>0.207504450712141</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1339774369819492</v>
+        <v>-0.134012478136131</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2207043247177554</v>
       </c>
       <c r="E100" t="n">
-        <v>1.533377042162512</v>
+        <v>1.532806163358967</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2317558495021345</v>
+        <v>0.231155769736771</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1304528808904956</v>
+        <v>-0.1303419172355865</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2405697290208917</v>
       </c>
       <c r="E101" t="n">
-        <v>1.39088656882646</v>
+        <v>1.390190125887096</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2223998613355915</v>
+        <v>0.2220158686876825</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1108196142120463</v>
+        <v>-0.1107874931540463</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2548494010365567</v>
       </c>
       <c r="E102" t="n">
-        <v>1.210516607819872</v>
+        <v>1.209463913146327</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2366659912318604</v>
+        <v>0.2363535409404059</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1421887474452197</v>
+        <v>-0.1422267086955833</v>
       </c>
     </row>
   </sheetData>
